--- a/今日短线.xlsx
+++ b/今日短线.xlsx
@@ -66396,10 +66396,8 @@
       <c r="A985" s="1" t="n">
         <v>1003</v>
       </c>
-      <c r="B985" t="inlineStr">
-        <is>
-          <t>20240325</t>
-        </is>
+      <c r="B985" t="n">
+        <v>20240325</v>
       </c>
       <c r="C985" t="n">
         <v>2.392600205549845</v>
@@ -66420,10 +66418,10 @@
         <v>1.07679180887372</v>
       </c>
       <c r="I985" t="n">
-        <v>0.9607390300230947</v>
+        <v>0.9607390300230948</v>
       </c>
       <c r="J985" t="n">
-        <v>0.9230769230769231</v>
+        <v>0.9230769230769232</v>
       </c>
       <c r="K985" t="n">
         <v>1398</v>
